--- a/html/cms/static/file/排班导入模板.xlsx
+++ b/html/cms/static/file/排班导入模板.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FE7E03-2CCF-4439-8583-E2EC1B43EA21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="1596" yWindow="732" windowWidth="19956" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -164,8 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,30 +476,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="36" max="36" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="36" max="36" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,6 +608,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 F1:AI1048576" xr:uid="{562F6739-0DD2-47E5-8DDD-1825E2AEDD50}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
